--- a/data/trans_orig/P2C_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E8D4EE6-A68E-4B99-8DAA-8C6E7227912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{320E9C50-80CC-4334-8AB2-D8B0FFE7F650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6DDE75E-5D7D-490B-B741-16743CA0CADD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67E67F02-7A6D-4D3D-97FF-1F6AEE8E33A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -101,7 +101,7 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -632,220 +632,220 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2023 (Tasa respuesta: 19,74%)</t>
   </si>
   <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F6541F-34DD-4716-8488-26931FC0DF94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DA6CFF-2568-4EF5-82D8-4CCA72107497}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAE4AF4-08EC-4C18-A745-DB1564218D9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7986C9A-7CFD-4E61-8E63-65A69AED636A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2759,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB51C5E4-4C69-417E-B077-E3EA91051047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6C5C41-DA11-4C1A-8BB5-F7A4B5976F88}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3426,7 +3426,7 @@
         <v>3973</v>
       </c>
       <c r="N14" s="7">
-        <v>4178889</v>
+        <v>4178888</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>114</v>
@@ -3477,7 +3477,7 @@
         <v>4011</v>
       </c>
       <c r="N15" s="7">
-        <v>4219046</v>
+        <v>4219045</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3510,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7778F35-D069-497B-98E5-36BE8837C0BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEDFE03-754D-4085-A707-464625F1CF2A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3631,7 +3631,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>38196</v>
+        <v>36069</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3646,7 +3646,7 @@
         <v>175</v>
       </c>
       <c r="I4" s="7">
-        <v>92497</v>
+        <v>83232</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>200</v>
@@ -3661,7 +3661,7 @@
         <v>233</v>
       </c>
       <c r="N4" s="7">
-        <v>130693</v>
+        <v>119301</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>203</v>
@@ -3682,7 +3682,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>85914</v>
+        <v>78344</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>206</v>
@@ -3697,7 +3697,7 @@
         <v>320</v>
       </c>
       <c r="I5" s="7">
-        <v>187889</v>
+        <v>166586</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>209</v>
@@ -3712,7 +3712,7 @@
         <v>433</v>
       </c>
       <c r="N5" s="7">
-        <v>273803</v>
+        <v>244930</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>212</v>
@@ -3733,7 +3733,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>124110</v>
+        <v>114413</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3748,7 @@
         <v>495</v>
       </c>
       <c r="I6" s="7">
-        <v>280386</v>
+        <v>249818</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3763,7 +3763,7 @@
         <v>666</v>
       </c>
       <c r="N6" s="7">
-        <v>404496</v>
+        <v>364231</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3786,7 +3786,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>35353</v>
+        <v>33653</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
@@ -3801,7 +3801,7 @@
         <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>28711</v>
+        <v>26005</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>218</v>
@@ -3816,7 +3816,7 @@
         <v>95</v>
       </c>
       <c r="N7" s="7">
-        <v>64064</v>
+        <v>59658</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>221</v>
@@ -3837,7 +3837,7 @@
         <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>283961</v>
+        <v>260041</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>224</v>
@@ -3852,7 +3852,7 @@
         <v>468</v>
       </c>
       <c r="I8" s="7">
-        <v>478644</v>
+        <v>530232</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>227</v>
@@ -3867,7 +3867,7 @@
         <v>744</v>
       </c>
       <c r="N8" s="7">
-        <v>762606</v>
+        <v>790273</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>230</v>
@@ -3888,7 +3888,7 @@
         <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>319314</v>
+        <v>293694</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3903,7 +3903,7 @@
         <v>520</v>
       </c>
       <c r="I9" s="7">
-        <v>507355</v>
+        <v>556237</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3918,7 +3918,7 @@
         <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>826670</v>
+        <v>849931</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3941,7 +3941,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>11240</v>
+        <v>11611</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>233</v>
@@ -3956,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>11102</v>
+        <v>10293</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>236</v>
@@ -3971,7 +3971,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="7">
-        <v>22342</v>
+        <v>21904</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>239</v>
@@ -3992,7 +3992,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>73572</v>
+        <v>68833</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>242</v>
@@ -4007,7 +4007,7 @@
         <v>120</v>
       </c>
       <c r="I11" s="7">
-        <v>89142</v>
+        <v>79143</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>245</v>
@@ -4022,7 +4022,7 @@
         <v>190</v>
       </c>
       <c r="N11" s="7">
-        <v>162714</v>
+        <v>147975</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>248</v>
@@ -4043,7 +4043,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>84812</v>
+        <v>80444</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4058,7 +4058,7 @@
         <v>139</v>
       </c>
       <c r="I12" s="7">
-        <v>100244</v>
+        <v>89436</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4073,7 +4073,7 @@
         <v>218</v>
       </c>
       <c r="N12" s="7">
-        <v>185056</v>
+        <v>169879</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4096,7 +4096,7 @@
         <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>84788</v>
+        <v>81334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>251</v>
@@ -4111,7 +4111,7 @@
         <v>246</v>
       </c>
       <c r="I13" s="7">
-        <v>132310</v>
+        <v>119530</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>254</v>
@@ -4126,7 +4126,7 @@
         <v>356</v>
       </c>
       <c r="N13" s="7">
-        <v>217098</v>
+        <v>200864</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>257</v>
@@ -4147,7 +4147,7 @@
         <v>459</v>
       </c>
       <c r="D14" s="7">
-        <v>443448</v>
+        <v>407217</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>260</v>
@@ -4162,7 +4162,7 @@
         <v>908</v>
       </c>
       <c r="I14" s="7">
-        <v>755675</v>
+        <v>775961</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>263</v>
@@ -4177,7 +4177,7 @@
         <v>1367</v>
       </c>
       <c r="N14" s="7">
-        <v>1199123</v>
+        <v>1183178</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>266</v>
@@ -4198,7 +4198,7 @@
         <v>569</v>
       </c>
       <c r="D15" s="7">
-        <v>528236</v>
+        <v>488551</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4213,7 +4213,7 @@
         <v>1154</v>
       </c>
       <c r="I15" s="7">
-        <v>887985</v>
+        <v>895491</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4228,7 @@
         <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>1416221</v>
+        <v>1384042</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
